--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H2">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N2">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P2">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q2">
-        <v>18.112558759854</v>
+        <v>26.88354860927678</v>
       </c>
       <c r="R2">
-        <v>163.013028838686</v>
+        <v>241.951937483491</v>
       </c>
       <c r="S2">
-        <v>0.01183902689201073</v>
+        <v>0.007016734188475113</v>
       </c>
       <c r="T2">
-        <v>0.01183902689201073</v>
+        <v>0.007016734188475112</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H3">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P3">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q3">
-        <v>105.21104224631</v>
+        <v>230.3956033639517</v>
       </c>
       <c r="R3">
-        <v>946.89938021679</v>
+        <v>2073.560430275565</v>
       </c>
       <c r="S3">
-        <v>0.06876976218574769</v>
+        <v>0.06013434946755275</v>
       </c>
       <c r="T3">
-        <v>0.06876976218574768</v>
+        <v>0.06013434946755274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H4">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N4">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O4">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P4">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q4">
-        <v>244.3105370655907</v>
+        <v>1159.718734654414</v>
       </c>
       <c r="R4">
-        <v>2198.794833590316</v>
+        <v>10437.46861188973</v>
       </c>
       <c r="S4">
-        <v>0.1596902489962951</v>
+        <v>0.302692111548723</v>
       </c>
       <c r="T4">
-        <v>0.1596902489962951</v>
+        <v>0.3026921115487229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H5">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N5">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O5">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P5">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q5">
-        <v>7.138867007367332</v>
+        <v>19.94929509507778</v>
       </c>
       <c r="R5">
-        <v>64.24980306630599</v>
+        <v>179.5436558557</v>
       </c>
       <c r="S5">
-        <v>0.004666223011297562</v>
+        <v>0.005206861004997987</v>
       </c>
       <c r="T5">
-        <v>0.004666223011297563</v>
+        <v>0.005206861004997987</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N6">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P6">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q6">
-        <v>29.670993312594</v>
+        <v>20.11064541250733</v>
       </c>
       <c r="R6">
-        <v>267.038939813346</v>
+        <v>180.995808712566</v>
       </c>
       <c r="S6">
-        <v>0.01939403992543913</v>
+        <v>0.005248974206089253</v>
       </c>
       <c r="T6">
-        <v>0.01939403992543913</v>
+        <v>0.005248974206089252</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P7">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q7">
         <v>172.35091807241</v>
@@ -883,10 +883,10 @@
         <v>1551.15826265169</v>
       </c>
       <c r="S7">
-        <v>0.1126548259125398</v>
+        <v>0.04498441023654304</v>
       </c>
       <c r="T7">
-        <v>0.1126548259125398</v>
+        <v>0.04498441023654303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N8">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O8">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P8">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q8">
-        <v>400.2160273200307</v>
+        <v>867.5451514919639</v>
       </c>
       <c r="R8">
-        <v>3601.944245880276</v>
+        <v>7807.906363427675</v>
       </c>
       <c r="S8">
-        <v>0.2615957454093988</v>
+        <v>0.2264334152083967</v>
       </c>
       <c r="T8">
-        <v>0.2615957454093987</v>
+        <v>0.2264334152083967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N9">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O9">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P9">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q9">
-        <v>11.69449761590733</v>
+        <v>14.92337212313334</v>
       </c>
       <c r="R9">
-        <v>105.250478543166</v>
+        <v>134.3103491082</v>
       </c>
       <c r="S9">
-        <v>0.007643948798121012</v>
+        <v>0.003895071179241285</v>
       </c>
       <c r="T9">
-        <v>0.007643948798121014</v>
+        <v>0.003895071179241285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H10">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I10">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J10">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N10">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P10">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q10">
-        <v>25.961963227209</v>
+        <v>24.63234647049622</v>
       </c>
       <c r="R10">
-        <v>233.657669044881</v>
+        <v>221.691118234466</v>
       </c>
       <c r="S10">
-        <v>0.01696968301892198</v>
+        <v>0.006429159711536491</v>
       </c>
       <c r="T10">
-        <v>0.01696968301892198</v>
+        <v>0.00642915971153649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H11">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I11">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J11">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>28.377195</v>
       </c>
       <c r="O11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P11">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q11">
-        <v>150.806147607885</v>
+        <v>211.1025002622434</v>
       </c>
       <c r="R11">
-        <v>1357.255328470965</v>
+        <v>1899.92250236019</v>
       </c>
       <c r="S11">
-        <v>0.09857238067144751</v>
+        <v>0.05509875769717099</v>
       </c>
       <c r="T11">
-        <v>0.0985723806714475</v>
+        <v>0.05509875769717098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H12">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I12">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J12">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N12">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O12">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P12">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q12">
-        <v>350.186920766554</v>
+        <v>1062.605018984564</v>
       </c>
       <c r="R12">
-        <v>3151.682286898986</v>
+        <v>9563.445170861076</v>
       </c>
       <c r="S12">
-        <v>0.228894902545458</v>
+        <v>0.2773449693684177</v>
       </c>
       <c r="T12">
-        <v>0.2288949025454579</v>
+        <v>0.2773449693684176</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H13">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I13">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J13">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N13">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O13">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P13">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q13">
-        <v>10.232623959239</v>
+        <v>18.27876058202223</v>
       </c>
       <c r="R13">
-        <v>92.09361563315099</v>
+        <v>164.5088452382</v>
       </c>
       <c r="S13">
-        <v>0.006688415029342892</v>
+        <v>0.004770843543123936</v>
       </c>
       <c r="T13">
-        <v>0.006688415029342894</v>
+        <v>0.004770843543123935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H14">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.628421</v>
+        <v>1.103724333333333</v>
       </c>
       <c r="N14">
-        <v>4.885263</v>
+        <v>3.311173</v>
       </c>
       <c r="O14">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="P14">
-        <v>0.048329411442081</v>
+        <v>0.01870879385910814</v>
       </c>
       <c r="Q14">
-        <v>0.193779927772</v>
+        <v>0.05335440218144445</v>
       </c>
       <c r="R14">
-        <v>1.744019349948</v>
+        <v>0.4801896196330001</v>
       </c>
       <c r="S14">
-        <v>0.0001266616057091592</v>
+        <v>1.392575300728738E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001266616057091592</v>
+        <v>1.392575300728737E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H15">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>28.377195</v>
       </c>
       <c r="O15">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="P15">
-        <v>0.2807327123897247</v>
+        <v>0.1603368629650925</v>
       </c>
       <c r="Q15">
-        <v>1.125616122913333</v>
+        <v>0.4572543551216667</v>
       </c>
       <c r="R15">
-        <v>10.13054510622</v>
+        <v>4.115289196095</v>
       </c>
       <c r="S15">
-        <v>0.000735743619989737</v>
+        <v>0.0001193455638257591</v>
       </c>
       <c r="T15">
-        <v>0.0007357436199897369</v>
+        <v>0.0001193455638257591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H16">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.96489266666667</v>
+        <v>47.61312599999999</v>
       </c>
       <c r="N16">
-        <v>65.894678</v>
+        <v>142.839378</v>
       </c>
       <c r="O16">
-        <v>0.6518893670423564</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="P16">
-        <v>0.6518893670423563</v>
+        <v>0.80707123365805</v>
       </c>
       <c r="Q16">
-        <v>2.613792940809778</v>
+        <v>2.301634381882</v>
       </c>
       <c r="R16">
-        <v>23.524136467288</v>
+        <v>20.714709436938</v>
       </c>
       <c r="S16">
-        <v>0.001708470091204507</v>
+        <v>0.0006007375325126648</v>
       </c>
       <c r="T16">
-        <v>0.001708470091204507</v>
+        <v>0.0006007375325126647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H17">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6418243333333332</v>
+        <v>0.8190333333333334</v>
       </c>
       <c r="N17">
-        <v>1.925473</v>
+        <v>2.4571</v>
       </c>
       <c r="O17">
-        <v>0.01904850912583785</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="P17">
-        <v>0.01904850912583786</v>
+        <v>0.01388310951774934</v>
       </c>
       <c r="Q17">
-        <v>0.07637623990088886</v>
+        <v>0.03959234434444445</v>
       </c>
       <c r="R17">
-        <v>0.6873861591079998</v>
+        <v>0.3563310991</v>
       </c>
       <c r="S17">
-        <v>4.992228707638294E-05</v>
+        <v>1.033379038612776E-05</v>
       </c>
       <c r="T17">
-        <v>4.992228707638294E-05</v>
+        <v>1.033379038612776E-05</v>
       </c>
     </row>
   </sheetData>
